--- a/DBD 분석/맵 분석/3. 콜드윈드 농장(★)/3. 썩은 들판(★)/영상분석자료/모멘트 시트 및 정리/살인마협회장 4,5,6월 영상 카테고리.xlsx
+++ b/DBD 분석/맵 분석/3. 콜드윈드 농장(★)/3. 썩은 들판(★)/영상분석자료/모멘트 시트 및 정리/살인마협회장 4,5,6월 영상 카테고리.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bumizi\Desktop\Study\Thesis\DBD 분석\맵 분석\3. 콜드윈드 농장(★)\3. 썩은 들판(★)\영상분석자료\모멘트 시트 및 정리\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bumizi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="144">
   <si>
     <t>일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -497,10 +497,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>최저 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>평균 조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -509,14 +505,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>58,052</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>46,313</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>119,536</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -525,23 +513,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>83362</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>78966</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>88674</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>살인마협회장</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>15만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 조회수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>750,258</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>868,626</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>78,966</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83,362</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>88,674</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,507,458</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -906,7 +910,7 @@
   <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1637,42 +1641,42 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="O23" s="6" t="s">
         <v>130</v>
       </c>
       <c r="P23" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="O24" s="6" t="s">
         <v>131</v>
       </c>
       <c r="P24" s="6" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="Q24" s="6" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="R24" s="6" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="O25" s="6" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="P25" s="6" t="s">
         <v>138</v>
@@ -1681,7 +1685,7 @@
         <v>139</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
